--- a/biology/Médecine/Loge_crurale_postérieure/Loge_crurale_postérieure.xlsx
+++ b/biology/Médecine/Loge_crurale_postérieure/Loge_crurale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_crurale_post%C3%A9rieure</t>
+          <t>Loge_crurale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge crurale postérieure (ou loge postérieure de la jambe) est la loge musculaire postérieure de la région de la jambe. Elle correspond au mollet.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_crurale_post%C3%A9rieure</t>
+          <t>Loge_crurale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge crurale latérale est limitée en avant par le tibia, la fibula et la membrane interosseuse de la jambe.
 En arrière, elle est fermée par le fascia crural qui s'insère sur le bord postérieur du tibia.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loge_crurale_post%C3%A9rieure</t>
+          <t>Loge_crurale_postérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musculaire
-Loge crurale postérieure superficielle
-La loge crurale postérieure superficielle est essentiellement occupée par le muscle triceps sural composé des muscle gastrocnémien et soléaire.
-Loge crurale postérieure profonde
-Le loge crurale postérieure profonde contient les muscles fléchisseurs des orteils, le muscle tibial postérieur et le muscle poplité.
+          <t>Musculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Loge crurale postérieure superficielle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loge crurale postérieure superficielle est essentiellement occupée par le muscle triceps sural composé des muscle gastrocnémien et soléaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Loge_crurale_postérieure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loge_crurale_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Musculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Loge crurale postérieure profonde</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le loge crurale postérieure profonde contient les muscles fléchisseurs des orteils, le muscle tibial postérieur et le muscle poplité.
 </t>
         </is>
       </c>
